--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value558.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value558.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.406291989092711</v>
+        <v>1.241005420684814</v>
       </c>
       <c r="B1">
-        <v>0.5636003413043132</v>
+        <v>1.418902039527893</v>
       </c>
       <c r="C1">
-        <v>0.9720257092974843</v>
+        <v>1.770377993583679</v>
       </c>
       <c r="D1">
-        <v>3.244764364606566</v>
+        <v>3.486965894699097</v>
       </c>
       <c r="E1">
-        <v>3.039694203214398</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
